--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value51.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value51.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.717883699119254</v>
+        <v>1.740272164344788</v>
       </c>
       <c r="B1">
-        <v>1.484577107080626</v>
+        <v>3.311477661132812</v>
       </c>
       <c r="C1">
-        <v>2.948144370665735</v>
+        <v>4.733545303344727</v>
       </c>
       <c r="D1">
-        <v>3.033872988297778</v>
+        <v>3.052782773971558</v>
       </c>
       <c r="E1">
-        <v>1.143564731154088</v>
+        <v>1.703563332557678</v>
       </c>
     </row>
   </sheetData>
